--- a/W2_Characterization/DRUG_COHORTS.xlsx
+++ b/W2_Characterization/DRUG_COHORTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajodicke\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/orms0737_ox_ac_uk/Documents/LongCovidStudyathon/W2_Characterization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B6AED6-FB0E-4350-B171-B8DC60E33EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{E2B6AED6-FB0E-4350-B171-B8DC60E33EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE148724-6474-4597-8184-6D9F5D16B47D}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="0" windowWidth="22932" windowHeight="14760" xr2:uid="{1F32D9B7-7C7D-4392-AEDA-53E0559AD3A5}"/>
+    <workbookView xWindow="4240" yWindow="1610" windowWidth="14400" windowHeight="7440" xr2:uid="{1F32D9B7-7C7D-4392-AEDA-53E0559AD3A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Remdesivir </t>
   </si>
@@ -62,9 +62,6 @@
     <t>Bebtelovimab </t>
   </si>
   <si>
-    <t>Corticosteroids </t>
-  </si>
-  <si>
     <t>Baricitinib </t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Prednisone </t>
   </si>
   <si>
-    <t>Fluticasone </t>
-  </si>
-  <si>
     <t>prednisolone </t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>Fluvoxamine  </t>
   </si>
   <si>
-    <t>amitriptyline. </t>
-  </si>
-  <si>
     <t>Mirtazapine </t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>H-2_receptor_antagonists </t>
   </si>
   <si>
-    <t>Paxlovid </t>
-  </si>
-  <si>
     <t>SarsCov-2 antiviral effect </t>
   </si>
   <si>
@@ -182,9 +170,6 @@
     <t>Molnupiravir </t>
   </si>
   <si>
-    <t>Zoster Herpes vaccine  </t>
-  </si>
-  <si>
     <t>Methylphenidate </t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>Heparin </t>
   </si>
   <si>
-    <t>warfarin </t>
-  </si>
-  <si>
     <t>aspirin </t>
   </si>
   <si>
@@ -219,9 +201,6 @@
   </si>
   <si>
     <t>Antithrombotica and anticoagulants</t>
-  </si>
-  <si>
-    <t>Vaccines</t>
   </si>
   <si>
     <t>Antidepressants</t>
@@ -289,6 +268,18 @@
   </si>
   <si>
     <t>NSAIDS</t>
+  </si>
+  <si>
+    <t>Corticosteroids (excl topicals)</t>
+  </si>
+  <si>
+    <t>amitriptyline </t>
+  </si>
+  <si>
+    <t>Fluticasone and other inhalative steroids</t>
+  </si>
+  <si>
+    <t>warfarin/phenprocoumon</t>
   </si>
 </sst>
 </file>
@@ -419,15 +410,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,9 +433,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -765,33 +752,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB324E15-C957-40F0-9176-11E7A4BE5361}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.44140625" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="71.453125" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -799,37 +786,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,15 +820,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -853,325 +836,313 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1180,6 +1151,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002339475D51829F4AAB1E6C3D1B996F65" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c116c8b3a854b17cbee299446b0c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fcabcec8-6eab-48d3-ba81-f07be701da0c" xmlns:ns4="2a89016c-c196-473d-a30c-1aad8fea0b7b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="592cadd3509ec4cd5b2b9f642e5d68c1" ns3:_="" ns4:_="">
     <xsd:import namespace="fcabcec8-6eab-48d3-ba81-f07be701da0c"/>
@@ -1408,15 +1388,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1426,6 +1397,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B25B4A-09DD-41AA-93B7-D3EB8A51A4E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EC6165-8740-4A1B-8626-152594A48784}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1440,14 +1419,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B25B4A-09DD-41AA-93B7-D3EB8A51A4E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
